--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>169499</v>
+        <v>170599.5017100554</v>
       </c>
       <c r="C2">
-        <v>241813</v>
+        <v>243633.8521784183</v>
       </c>
       <c r="D2">
-        <v>286748</v>
+        <v>288073.0325529571</v>
       </c>
       <c r="E2">
-        <v>319488</v>
+        <v>320396.3342176132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>208740</v>
+        <v>210101.367450521</v>
       </c>
       <c r="C3">
-        <v>296184</v>
+        <v>298388.0969814305</v>
       </c>
       <c r="D3">
-        <v>344960</v>
+        <v>346302.7183486127</v>
       </c>
       <c r="E3">
-        <v>383514</v>
+        <v>385064.3886487246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>173958</v>
+        <v>175774.1323965691</v>
       </c>
       <c r="C4">
-        <v>253708</v>
+        <v>255451.2416646481</v>
       </c>
       <c r="D4">
-        <v>303597</v>
+        <v>304989.6595546202</v>
       </c>
       <c r="E4">
-        <v>345338</v>
+        <v>346963.6986408023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>146671</v>
+        <v>147650.4968770791</v>
       </c>
       <c r="C5">
-        <v>206550</v>
+        <v>207747.4917195718</v>
       </c>
       <c r="D5">
-        <v>232806</v>
+        <v>234416.135689859</v>
       </c>
       <c r="E5">
-        <v>258390</v>
+        <v>259393.1022128583</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>127985</v>
+        <v>128974.6871793733</v>
       </c>
       <c r="C6">
-        <v>179751</v>
+        <v>180780.1452833392</v>
       </c>
       <c r="D6">
-        <v>204919</v>
+        <v>205760.4743610043</v>
       </c>
       <c r="E6">
-        <v>224786</v>
+        <v>225446.1385113747</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14025</v>
+        <v>14094.52972051891</v>
       </c>
       <c r="C7">
-        <v>19485</v>
+        <v>19591.65091593164</v>
       </c>
       <c r="D7">
-        <v>22230</v>
+        <v>22351.40199668508</v>
       </c>
       <c r="E7">
-        <v>24135</v>
+        <v>24216.33805023737</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>680621</v>
+        <v>685732.7234247532</v>
       </c>
       <c r="C8">
-        <v>973968</v>
+        <v>978188.8231966568</v>
       </c>
       <c r="D8">
-        <v>1143147</v>
+        <v>1149251.332961092</v>
       </c>
       <c r="E8">
-        <v>1247668</v>
+        <v>1254841.582206369</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>193846</v>
+        <v>195037.3496874791</v>
       </c>
       <c r="C9">
-        <v>271377</v>
+        <v>272922.2820446609</v>
       </c>
       <c r="D9">
-        <v>308382</v>
+        <v>309747.1584284796</v>
       </c>
       <c r="E9">
-        <v>335340</v>
+        <v>337036.9602536431</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83259</v>
+        <v>83730.22944576826</v>
       </c>
       <c r="C10">
-        <v>112918</v>
+        <v>113392.3348628892</v>
       </c>
       <c r="D10">
-        <v>129195</v>
+        <v>129405.5374664847</v>
       </c>
       <c r="E10">
-        <v>136912</v>
+        <v>137288.767285568</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15184</v>
+        <v>15259.14189030051</v>
       </c>
       <c r="C11">
-        <v>19485</v>
+        <v>19581.7296019696</v>
       </c>
       <c r="D11">
-        <v>21960</v>
+        <v>22083.70857085698</v>
       </c>
       <c r="E11">
-        <v>25232</v>
+        <v>25295.97051138061</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34047</v>
+        <v>34229.96557708149</v>
       </c>
       <c r="C12">
-        <v>46240</v>
+        <v>46490.64867722927</v>
       </c>
       <c r="D12">
-        <v>50600</v>
+        <v>50729.55331958831</v>
       </c>
       <c r="E12">
-        <v>52377</v>
+        <v>52421.17798267669</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46648</v>
+        <v>46934.74596435264</v>
       </c>
       <c r="C13">
-        <v>62640</v>
+        <v>62908.47048988931</v>
       </c>
       <c r="D13">
-        <v>72177</v>
+        <v>72328.30879069919</v>
       </c>
       <c r="E13">
-        <v>77322</v>
+        <v>77603.82159470905</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV_Fiets.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>170599.5017100554</v>
+        <v>170599.5017100553</v>
       </c>
       <c r="C2">
-        <v>243633.8521784183</v>
+        <v>243633.8521784186</v>
       </c>
       <c r="D2">
-        <v>288073.0325529571</v>
+        <v>288073.0325529572</v>
       </c>
       <c r="E2">
         <v>320396.3342176132</v>
@@ -408,13 +408,13 @@
         <v>210101.367450521</v>
       </c>
       <c r="C3">
-        <v>298388.0969814305</v>
+        <v>298388.0969814303</v>
       </c>
       <c r="D3">
-        <v>346302.7183486127</v>
+        <v>346302.7183486128</v>
       </c>
       <c r="E3">
-        <v>385064.3886487246</v>
+        <v>385064.3886487251</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>175774.1323965691</v>
       </c>
       <c r="C4">
-        <v>255451.2416646481</v>
+        <v>255451.2416646483</v>
       </c>
       <c r="D4">
-        <v>304989.6595546202</v>
+        <v>304989.6595546204</v>
       </c>
       <c r="E4">
-        <v>346963.6986408023</v>
+        <v>346963.6986408025</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>147650.4968770791</v>
+        <v>147650.4968770792</v>
       </c>
       <c r="C5">
-        <v>207747.4917195718</v>
+        <v>207747.4917195719</v>
       </c>
       <c r="D5">
         <v>234416.135689859</v>
       </c>
       <c r="E5">
-        <v>259393.1022128583</v>
+        <v>259393.1022128584</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>128974.6871793733</v>
       </c>
       <c r="C6">
-        <v>180780.1452833392</v>
+        <v>180780.1452833393</v>
       </c>
       <c r="D6">
-        <v>205760.4743610043</v>
+        <v>205760.4743610042</v>
       </c>
       <c r="E6">
-        <v>225446.1385113747</v>
+        <v>225446.1385113748</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -482,7 +482,7 @@
         <v>22351.40199668508</v>
       </c>
       <c r="E7">
-        <v>24216.33805023737</v>
+        <v>24216.33805023736</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>685732.7234247532</v>
+        <v>685732.7234247526</v>
       </c>
       <c r="C8">
-        <v>978188.8231966568</v>
+        <v>978188.8231966562</v>
       </c>
       <c r="D8">
         <v>1149251.332961092</v>
       </c>
       <c r="E8">
-        <v>1254841.582206369</v>
+        <v>1254841.582206368</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>195037.3496874791</v>
+        <v>195037.349687479</v>
       </c>
       <c r="C9">
-        <v>272922.2820446609</v>
+        <v>272922.2820446611</v>
       </c>
       <c r="D9">
-        <v>309747.1584284796</v>
+        <v>309747.1584284799</v>
       </c>
       <c r="E9">
-        <v>337036.9602536431</v>
+        <v>337036.9602536433</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83730.22944576826</v>
+        <v>83730.22944576829</v>
       </c>
       <c r="C10">
         <v>113392.3348628892</v>
       </c>
       <c r="D10">
-        <v>129405.5374664847</v>
+        <v>129405.5374664848</v>
       </c>
       <c r="E10">
-        <v>137288.767285568</v>
+        <v>137288.7672855681</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -547,10 +547,10 @@
         <v>19581.7296019696</v>
       </c>
       <c r="D11">
-        <v>22083.70857085698</v>
+        <v>22083.70857085699</v>
       </c>
       <c r="E11">
-        <v>25295.97051138061</v>
+        <v>25295.97051138058</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34229.96557708149</v>
+        <v>34229.9655770815</v>
       </c>
       <c r="C12">
         <v>46490.64867722927</v>
       </c>
       <c r="D12">
-        <v>50729.55331958831</v>
+        <v>50729.55331958835</v>
       </c>
       <c r="E12">
         <v>52421.17798267669</v>
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46934.74596435264</v>
+        <v>46934.74596435262</v>
       </c>
       <c r="C13">
-        <v>62908.47048988931</v>
+        <v>62908.4704898893</v>
       </c>
       <c r="D13">
-        <v>72328.30879069919</v>
+        <v>72328.30879069922</v>
       </c>
       <c r="E13">
-        <v>77603.82159470905</v>
+        <v>77603.82159470902</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>170599.5017100553</v>
+        <v>170600</v>
       </c>
       <c r="C2">
-        <v>243633.8521784186</v>
+        <v>243634</v>
       </c>
       <c r="D2">
-        <v>288073.0325529572</v>
+        <v>288073</v>
       </c>
       <c r="E2">
-        <v>320396.3342176132</v>
+        <v>320396</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>210101.367450521</v>
+        <v>210101</v>
       </c>
       <c r="C3">
-        <v>298388.0969814303</v>
+        <v>298388</v>
       </c>
       <c r="D3">
-        <v>346302.7183486128</v>
+        <v>346303</v>
       </c>
       <c r="E3">
-        <v>385064.3886487251</v>
+        <v>385064</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>175774.1323965691</v>
+        <v>175774</v>
       </c>
       <c r="C4">
-        <v>255451.2416646483</v>
+        <v>255451</v>
       </c>
       <c r="D4">
-        <v>304989.6595546204</v>
+        <v>304990</v>
       </c>
       <c r="E4">
-        <v>346963.6986408025</v>
+        <v>346964</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>147650.4968770792</v>
+        <v>147650</v>
       </c>
       <c r="C5">
-        <v>207747.4917195719</v>
+        <v>207747</v>
       </c>
       <c r="D5">
-        <v>234416.135689859</v>
+        <v>234416</v>
       </c>
       <c r="E5">
-        <v>259393.1022128584</v>
+        <v>259393</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>128974.6871793733</v>
+        <v>128975</v>
       </c>
       <c r="C6">
-        <v>180780.1452833393</v>
+        <v>180780</v>
       </c>
       <c r="D6">
-        <v>205760.4743610042</v>
+        <v>205760</v>
       </c>
       <c r="E6">
-        <v>225446.1385113748</v>
+        <v>225446</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14094.52972051891</v>
+        <v>14095</v>
       </c>
       <c r="C7">
-        <v>19591.65091593164</v>
+        <v>19592</v>
       </c>
       <c r="D7">
-        <v>22351.40199668508</v>
+        <v>22351</v>
       </c>
       <c r="E7">
-        <v>24216.33805023736</v>
+        <v>24216</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>685732.7234247526</v>
+        <v>685733</v>
       </c>
       <c r="C8">
-        <v>978188.8231966562</v>
+        <v>978189</v>
       </c>
       <c r="D8">
-        <v>1149251.332961092</v>
+        <v>1149251</v>
       </c>
       <c r="E8">
-        <v>1254841.582206368</v>
+        <v>1254842</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>195037.349687479</v>
+        <v>195037</v>
       </c>
       <c r="C9">
-        <v>272922.2820446611</v>
+        <v>272922</v>
       </c>
       <c r="D9">
-        <v>309747.1584284799</v>
+        <v>309747</v>
       </c>
       <c r="E9">
-        <v>337036.9602536433</v>
+        <v>337037</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83730.22944576829</v>
+        <v>83730</v>
       </c>
       <c r="C10">
-        <v>113392.3348628892</v>
+        <v>113392</v>
       </c>
       <c r="D10">
-        <v>129405.5374664848</v>
+        <v>129406</v>
       </c>
       <c r="E10">
-        <v>137288.7672855681</v>
+        <v>137289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15259.14189030051</v>
+        <v>15259</v>
       </c>
       <c r="C11">
-        <v>19581.7296019696</v>
+        <v>19582</v>
       </c>
       <c r="D11">
-        <v>22083.70857085699</v>
+        <v>22084</v>
       </c>
       <c r="E11">
-        <v>25295.97051138058</v>
+        <v>25296</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34229.9655770815</v>
+        <v>34230</v>
       </c>
       <c r="C12">
-        <v>46490.64867722927</v>
+        <v>46491</v>
       </c>
       <c r="D12">
-        <v>50729.55331958835</v>
+        <v>50730</v>
       </c>
       <c r="E12">
-        <v>52421.17798267669</v>
+        <v>52421</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46934.74596435262</v>
+        <v>46935</v>
       </c>
       <c r="C13">
-        <v>62908.4704898893</v>
+        <v>62908</v>
       </c>
       <c r="D13">
-        <v>72328.30879069922</v>
+        <v>72328</v>
       </c>
       <c r="E13">
-        <v>77603.82159470902</v>
+        <v>77604</v>
       </c>
     </row>
   </sheetData>
